--- a/CodeSystem-ExampleConsentStateCS.xlsx
+++ b/CodeSystem-ExampleConsentStateCS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T20:33:47+00:00</t>
+    <t>2023-07-25T20:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
